--- a/biology/Mycologie/Bolet_bai/Bolet_bai.xlsx
+++ b/biology/Mycologie/Bolet_bai/Bolet_bai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Imleria badia
 Imleria badia, le Bolet bai, anciennement Xerocomus badius ou encore Boletus badius, est une espèce de champignons basidiomycètes de la famille des Boletaceae et du genre Imleria. Comestible et très commun, il contient de la théanine. Il est caractérisé par son chapeau brun bai, son pied brunâtre lisse, ses pores et tubes jaune verdâtre nettement bleuissants à la pression, sa chair non ou très faiblement bleuissante à la coupe et son habitat souvent sous conifères, parfois sous feuillus.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Imleria badia (Fr.) Vizzini, 2014[1]. 
-Le basionyme de ce taxon est Boletus castaneus var. badius Fr., 1821[1].
-Synonymes
-Imleria badia a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Imleria badia (Fr.) Vizzini, 2014. 
+Le basionyme de ce taxon est Boletus castaneus var. badius Fr., 1821.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_bai</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imleria badia a pour synonymes :
 Boletus badius var. badius
 Boletus castaneus var. badius (Fr.) Fr., 1828
 Boletus castaneus var. badius Fr., 1821
@@ -532,50 +581,192 @@
 Viscipellis badia (Fr.) Quél., 1886
 Viscipellis badia (Fr.) Quél., 1886
 Xerocomus badius (Fr.) E.-J.Gilbert, 1931
-Publication originale
-(en) A. Vizzini, « Nomenclatural novelties », Index Fungorum, vol. 147,‎ 2014, p. 1 (ISSN 2049-2375, lire en ligne)
-Phylogénie
-Décrit pour la première fois par Elias Fries en 1818, le Bolet bai a été reclassé sous le nom de Xerocomus badius en 1931. Il a ensuite été reclassé dans le genre Imleria en 2014.
-Étymologie
-Le nom de genre Imleria a été nommé en l'honneur de Louis Imler, tandis que l'épithète spécifique badia fait réfèrence à la couleur baie du chapeau de cette espèce.
-Nom vernaculaire
-Imleria badia porte en français le nom vulgarisé et normalisé « Bolet bai », bai étant la couleur brun-rouge de son chapeau[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_bai</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) A. Vizzini, « Nomenclatural novelties », Index Fungorum, vol. 147,‎ 2014, p. 1 (ISSN 2049-2375, lire en ligne)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_bai</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit pour la première fois par Elias Fries en 1818, le Bolet bai a été reclassé sous le nom de Xerocomus badius en 1931. Il a ensuite été reclassé dans le genre Imleria en 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_bai</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Imleria a été nommé en l'honneur de Louis Imler, tandis que l'épithète spécifique badia fait réfèrence à la couleur baie du chapeau de cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_bai</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imleria badia porte en français le nom vulgarisé et normalisé « Bolet bai », bai étant la couleur brun-rouge de son chapeau.
 Le Bolet bai est parfois nommé à tort « Cèpe des pins », mais le Cèpe des pins est une tout autre espèce ; Boletus pinophilus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bolet_bai</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Imleria badia, le Bolet bai, sont les suivantes :
-Son chapeau mesure de 5 à 15 cm, il est d'abord un peu visqueux puis sec, parfois même nettement feutré, velouté par temps sec et viscidule par temps humide, de couleur brun-bai ou brun châtain assez uniforme, parfois brun noirâtre[3]. Il est hémisphérique à l'état jeune puis s'aplatissant avec l'âge. Il devient progressivement pulviné et à l'état vieux la marge peut se récurver et lui donner une forme étalée.
-L'hyménophore présente des tubes d'abord blanchâtres puis jaune olivâtre terne, nettement bleuissants. Les pores sont fins, très serrés, concolores aux tubes, nettement bleuissants[3] à la pression ou à la coupe.
-Son stipe mesure 5 à 12 cm x 1 à 4 cm, il est cylindrique ou presque, grêle et allongé, lisse, brun ochracé à roussâtre[3], à l'aspect de vieux bois jaune brunâtre.
-La chair est blanchâtre, très ferme puis mollissant avec l'âge, bleuissant parfois un peu[3], particulièrement au-dessus des tubes. Découpée, elle prend un aspect gris. Sa saveur est douce et son odeur est faible, de Cèpe. La sporée est brun olive.
+Son chapeau mesure de 5 à 15 cm, il est d'abord un peu visqueux puis sec, parfois même nettement feutré, velouté par temps sec et viscidule par temps humide, de couleur brun-bai ou brun châtain assez uniforme, parfois brun noirâtre. Il est hémisphérique à l'état jeune puis s'aplatissant avec l'âge. Il devient progressivement pulviné et à l'état vieux la marge peut se récurver et lui donner une forme étalée.
+L'hyménophore présente des tubes d'abord blanchâtres puis jaune olivâtre terne, nettement bleuissants. Les pores sont fins, très serrés, concolores aux tubes, nettement bleuissants à la pression ou à la coupe.
+Son stipe mesure 5 à 12 cm x 1 à 4 cm, il est cylindrique ou presque, grêle et allongé, lisse, brun ochracé à roussâtre, à l'aspect de vieux bois jaune brunâtre.
+La chair est blanchâtre, très ferme puis mollissant avec l'âge, bleuissant parfois un peu, particulièrement au-dessus des tubes. Découpée, elle prend un aspect gris. Sa saveur est douce et son odeur est faible, de Cèpe. La sporée est brun olive.
 	Principaux caractères distinctifs
 			Chapeau de couleur brun-bai uniforme. Souvent feutré ou velouté...
 			...ou alors viscidule avec l'humidité.
@@ -584,8 +775,43 @@
 			Pores blanchâtres puis verdâtres, nettement bleuissants à la pression.
 			Pied lisse sans ornementation, relativement grêle et allongé, à l'aspect de bois écorcé.
 			Chair non bleuissante à la coupe ou alors légèrement au-dessus des tubes.
-Caractéristiques microscopiques
-Ses spores mesurent 12 à 15,5 µm x 4 à 5 µm, elles sont de forme allongée-fusoïde[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_bai</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bai</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12 à 15,5 µm x 4 à 5 µm, elles sont de forme allongée-fusoïde.
 </t>
         </is>
       </c>
